--- a/coursemgr/service/src/main/resources/templates/教师导入模板.xlsx
+++ b/coursemgr/service/src/main/resources/templates/教师导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>序号</t>
   </si>
@@ -28,181 +28,7 @@
     <t>学院</t>
   </si>
   <si>
-    <t>201721080110</t>
-  </si>
-  <si>
-    <t>陈鹏</t>
-  </si>
-  <si>
-    <t>机械工程</t>
-  </si>
-  <si>
-    <t>201721080111</t>
-  </si>
-  <si>
-    <t>曾易寒</t>
-  </si>
-  <si>
-    <t>201721080112</t>
-  </si>
-  <si>
-    <t>张鹏飞</t>
-  </si>
-  <si>
-    <t>201721080201</t>
-  </si>
-  <si>
-    <t>段飞宇</t>
-  </si>
-  <si>
-    <t>201811040810</t>
-  </si>
-  <si>
-    <t>葛福国</t>
-  </si>
-  <si>
-    <t>201821040105</t>
-  </si>
-  <si>
-    <t>韩润</t>
-  </si>
-  <si>
-    <t>201821040112</t>
-  </si>
-  <si>
-    <t>傅子剑</t>
-  </si>
-  <si>
-    <t>201821040122</t>
-  </si>
-  <si>
-    <t>王瑞元</t>
-  </si>
-  <si>
-    <t>201821040202</t>
-  </si>
-  <si>
-    <t>黄卓</t>
-  </si>
-  <si>
-    <t>201821040219</t>
-  </si>
-  <si>
-    <t>黄振</t>
-  </si>
-  <si>
-    <t>201821040220</t>
-  </si>
-  <si>
-    <t>岳昌洁</t>
-  </si>
-  <si>
-    <t>201821040226</t>
-  </si>
-  <si>
-    <t>刘亚鹏</t>
-  </si>
-  <si>
-    <t>201821040235</t>
-  </si>
-  <si>
-    <t>何茂</t>
-  </si>
-  <si>
-    <t>201821040236</t>
-  </si>
-  <si>
-    <t>李龑</t>
-  </si>
-  <si>
-    <t>201822040415</t>
-  </si>
-  <si>
-    <t>宋博文</t>
-  </si>
-  <si>
-    <t>201822040424</t>
-  </si>
-  <si>
-    <t>方俊洋</t>
-  </si>
-  <si>
-    <t>201822040501</t>
-  </si>
-  <si>
-    <t>杨鑫明</t>
-  </si>
-  <si>
-    <t>201822040508</t>
-  </si>
-  <si>
-    <t>薛皓天</t>
-  </si>
-  <si>
-    <t>201822040511</t>
-  </si>
-  <si>
-    <t>张鑫</t>
-  </si>
-  <si>
-    <t>201822040512</t>
-  </si>
-  <si>
-    <t>项歌</t>
-  </si>
-  <si>
-    <t>201822040516</t>
-  </si>
-  <si>
-    <t>于金超</t>
-  </si>
-  <si>
-    <t>201822040527</t>
-  </si>
-  <si>
-    <t>张星星</t>
-  </si>
-  <si>
-    <t>201822040528</t>
-  </si>
-  <si>
-    <t>夏杨琳</t>
-  </si>
-  <si>
-    <t>201822040617</t>
-  </si>
-  <si>
-    <t>黄涨潮</t>
-  </si>
-  <si>
-    <t>201822040618</t>
-  </si>
-  <si>
-    <t>余明东</t>
-  </si>
-  <si>
-    <t>201822040619</t>
-  </si>
-  <si>
-    <t>谢葭</t>
-  </si>
-  <si>
-    <t>201852040712</t>
-  </si>
-  <si>
-    <t>郭永亮</t>
-  </si>
-  <si>
-    <t>201852040713</t>
-  </si>
-  <si>
-    <t>魏晨竹</t>
-  </si>
-  <si>
-    <t>201852040714</t>
-  </si>
-  <si>
-    <t>丁林飞</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -210,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -708,22 +534,22 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="15.7416666666667" customWidth="1"/>
@@ -1207,406 +1033,14 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" ht="14.3" customHeight="1" spans="1:4">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
